--- a/public/files/templates/lista_alarmas_sensores_sos.xlsx
+++ b/public/files/templates/lista_alarmas_sensores_sos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\source\repos\server\vs.gvops.cl\public\files\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C005D83C-68E2-4EF5-9648-BDB985F2C607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="600" windowWidth="19815" windowHeight="9660"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte" sheetId="1" r:id="rId1"/>
@@ -55,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh:mm"/>
   </numFmts>
@@ -268,16 +274,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -288,9 +290,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -298,15 +297,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -319,6 +309,15 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -328,7 +327,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -342,15 +341,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -361,6 +351,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -378,7 +371,13 @@
     <xdr:ext cx="1428750" cy="542925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Logo" descr="Logo"/>
+        <xdr:cNvPr id="2" name="Logo" descr="Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -401,44 +400,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1297413</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>276678</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="3 Imagen"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8001000" y="0"/>
-          <a:ext cx="1249788" cy="829128"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -728,214 +689,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1" style="12" customWidth="1"/>
-    <col min="2" max="7" width="19.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="30" customWidth="1"/>
-    <col min="9" max="38" width="11.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1" style="9" customWidth="1"/>
+    <col min="2" max="7" width="19.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="16" customWidth="1"/>
+    <col min="9" max="38" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="11"/>
+      <c r="D9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="11"/>
+      <c r="D12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="11"/>
+      <c r="D14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="11"/>
+      <c r="D15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="11"/>
+      <c r="D16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="11"/>
+      <c r="D17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="11"/>
+      <c r="D18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="11"/>
+      <c r="D19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="11"/>
+      <c r="D20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="11"/>
+      <c r="D21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="11"/>
+      <c r="D22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="11"/>
+      <c r="D23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="8"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="B8:H8"/>
+  <autoFilter ref="B8:H8" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A1:H2"/>
